--- a/log book.xlsx
+++ b/log book.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan\Documents\Kombucha_Brew_Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE3ABE3-C7BF-4148-B0C4-2F9A92963202}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065AAF40-4F51-4369-8C67-6880AECA9281}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{1217B96D-F03A-441C-9008-E755B4774B06}"/>
   </bookViews>
@@ -376,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -412,26 +412,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -442,50 +451,37 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -711,7 +707,7 @@
   <dimension ref="A1:W92"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:T35"/>
+      <selection activeCell="S1" sqref="A1:T37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,55 +729,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="25" t="s">
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25" t="s">
+      <c r="N1" s="31"/>
+      <c r="O1" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25" t="s">
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25" t="s">
+      <c r="R1" s="31"/>
+      <c r="S1" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="25"/>
+      <c r="T1" s="31"/>
       <c r="U1" s="18"/>
       <c r="V1" s="18"/>
       <c r="W1" s="18"/>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
       <c r="K2" s="11" t="s">
         <v>37</v>
       </c>
@@ -817,18 +813,18 @@
       <c r="W2" s="17"/>
     </row>
     <row r="3" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
@@ -844,42 +840,42 @@
       <c r="W3" s="18"/>
     </row>
     <row r="4" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27" t="s">
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="26" t="s">
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26" t="s">
+      <c r="L4" s="33"/>
+      <c r="M4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26" t="s">
+      <c r="N4" s="33"/>
+      <c r="O4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26" t="s">
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26" t="s">
+      <c r="R4" s="33"/>
+      <c r="S4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="26"/>
+      <c r="T4" s="33"/>
       <c r="U4" s="17"/>
       <c r="V4" s="17"/>
       <c r="W4" s="17"/>
@@ -888,29 +884,29 @@
       <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="34" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
       <c r="U5" s="18"/>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
@@ -919,39 +915,39 @@
       <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="33" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26" t="s">
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26" t="s">
+      <c r="L6" s="33"/>
+      <c r="M6" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26" t="s">
+      <c r="N6" s="33"/>
+      <c r="O6" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26" t="s">
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26" t="s">
+      <c r="R6" s="33"/>
+      <c r="S6" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="T6" s="26"/>
+      <c r="T6" s="33"/>
       <c r="U6" s="17"/>
       <c r="V6" s="17"/>
       <c r="W6" s="17"/>
@@ -960,19 +956,19 @@
       <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="34" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
       <c r="K7" s="14" t="s">
         <v>37</v>
       </c>
@@ -1011,19 +1007,19 @@
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="33" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
@@ -1042,39 +1038,39 @@
       <c r="A9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="34" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="25" t="s">
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25" t="s">
+      <c r="L9" s="31"/>
+      <c r="M9" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25" t="s">
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25" t="s">
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25" t="s">
+      <c r="R9" s="31"/>
+      <c r="S9" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="T9" s="25"/>
+      <c r="T9" s="31"/>
       <c r="U9" s="18"/>
       <c r="V9" s="18"/>
       <c r="W9" s="18"/>
@@ -1083,30 +1079,30 @@
       <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="33" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="40"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="24"/>
       <c r="V10" s="17"/>
       <c r="W10" s="17"/>
     </row>
@@ -1114,480 +1110,480 @@
       <c r="A11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="35" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="41"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="25"/>
       <c r="V11" s="18"/>
       <c r="W11" s="18"/>
     </row>
     <row r="12" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="40"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="24"/>
       <c r="V12" s="17"/>
       <c r="W12" s="17"/>
     </row>
     <row r="13" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="42"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="26"/>
       <c r="V13" s="16"/>
       <c r="W13" s="16"/>
     </row>
     <row r="14" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="36" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="40"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="24"/>
       <c r="V14" s="17"/>
       <c r="W14" s="17"/>
     </row>
     <row r="15" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="41"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="25"/>
       <c r="V15" s="18"/>
       <c r="W15" s="18"/>
     </row>
     <row r="16" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="26" t="s">
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="50" t="s">
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="40"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="24"/>
       <c r="V16" s="17"/>
       <c r="W16" s="17"/>
     </row>
     <row r="17" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="41"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="25"/>
       <c r="V17" s="18"/>
       <c r="W17" s="18"/>
     </row>
     <row r="18" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="40"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="24"/>
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
     </row>
     <row r="19" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="41"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="25"/>
       <c r="V19" s="18"/>
       <c r="W19" s="18"/>
     </row>
     <row r="20" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="40"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="24"/>
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
     </row>
     <row r="21" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="41"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="25"/>
       <c r="V21" s="18"/>
       <c r="W21" s="18"/>
     </row>
     <row r="22" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="27" t="s">
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="40"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="24"/>
       <c r="V22" s="17"/>
       <c r="W22" s="17"/>
     </row>
     <row r="23" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="41"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="25"/>
       <c r="V23" s="18"/>
       <c r="W23" s="18"/>
     </row>
     <row r="24" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="36" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="40"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="24"/>
       <c r="V24" s="17"/>
       <c r="W24" s="17"/>
     </row>
     <row r="25" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="41"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="25"/>
       <c r="V25" s="18"/>
       <c r="W25" s="18"/>
     </row>
     <row r="26" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="40"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="24"/>
       <c r="V26" s="17"/>
       <c r="W26" s="17"/>
     </row>
     <row r="27" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25" t="s">
+      <c r="B27" s="31"/>
+      <c r="C27" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25" t="s">
+      <c r="D27" s="31"/>
+      <c r="E27" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25" t="s">
+      <c r="F27" s="31"/>
+      <c r="G27" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25" t="s">
+      <c r="H27" s="31"/>
+      <c r="I27" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="25"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="41"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="25"/>
       <c r="V27" s="18"/>
       <c r="W27" s="18"/>
     </row>
@@ -1622,17 +1618,17 @@
       <c r="J28" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="40"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="24"/>
       <c r="V28" s="17"/>
       <c r="W28" s="17"/>
     </row>
@@ -1647,112 +1643,112 @@
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="43"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="27"/>
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
     </row>
     <row r="30" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26" t="s">
+      <c r="B30" s="33"/>
+      <c r="C30" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26" t="s">
+      <c r="D30" s="33"/>
+      <c r="E30" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26" t="s">
+      <c r="F30" s="33"/>
+      <c r="G30" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26" t="s">
+      <c r="H30" s="33"/>
+      <c r="I30" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="40"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="24"/>
       <c r="V30" s="17"/>
       <c r="W30" s="17"/>
     </row>
     <row r="31" spans="1:23" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="43"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="27"/>
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
     </row>
     <row r="32" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26" t="s">
+      <c r="B32" s="33"/>
+      <c r="C32" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26" t="s">
+      <c r="D32" s="33"/>
+      <c r="E32" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26" t="s">
+      <c r="F32" s="33"/>
+      <c r="G32" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26" t="s">
+      <c r="H32" s="33"/>
+      <c r="I32" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="40"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="24"/>
       <c r="V32" s="17"/>
       <c r="W32" s="17"/>
     </row>
@@ -1787,17 +1783,17 @@
       <c r="J33" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="41"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="25"/>
       <c r="V33" s="18"/>
       <c r="W33" s="18"/>
     </row>
@@ -1812,101 +1808,101 @@
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="27"/>
-      <c r="T34" s="27"/>
-      <c r="U34" s="43"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="27"/>
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
     </row>
     <row r="35" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25" t="s">
+      <c r="B35" s="31"/>
+      <c r="C35" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25" t="s">
+      <c r="D35" s="31"/>
+      <c r="E35" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25" t="s">
+      <c r="F35" s="31"/>
+      <c r="G35" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25" t="s">
+      <c r="H35" s="31"/>
+      <c r="I35" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="25"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="41"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="25"/>
       <c r="V35" s="18"/>
       <c r="W35" s="18"/>
     </row>
-    <row r="36" spans="1:23" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
+    <row r="36" spans="1:23" s="22" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
       <c r="K36" s="47"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="48"/>
-      <c r="T36" s="48"/>
-      <c r="U36" s="43"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="47"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="27"/>
       <c r="V36" s="21"/>
       <c r="W36" s="21"/>
     </row>
     <row r="37" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="47"/>
     </row>
     <row r="38" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
@@ -2580,7 +2576,6 @@
   </sheetData>
   <mergeCells count="136">
     <mergeCell ref="K24:T25"/>
-    <mergeCell ref="K26:T35"/>
     <mergeCell ref="N23:Q23"/>
     <mergeCell ref="P18:T18"/>
     <mergeCell ref="P19:T19"/>
@@ -2590,6 +2585,7 @@
     <mergeCell ref="K19:O19"/>
     <mergeCell ref="K20:O20"/>
     <mergeCell ref="K21:O21"/>
+    <mergeCell ref="K26:T37"/>
     <mergeCell ref="K11:T13"/>
     <mergeCell ref="K14:T15"/>
     <mergeCell ref="K16:O16"/>
@@ -2700,6 +2696,11 @@
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="E35:F35"/>
@@ -2710,13 +2711,8 @@
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="I36:J36"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.23284313725490197" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.23284313725490197" top="0.75" bottom="0.30637254901960786" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;C&amp;"-,Bold"&amp;20Kombucha </oddHeader>

--- a/log book.xlsx
+++ b/log book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan\Documents\Kombucha_Brew_Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065AAF40-4F51-4369-8C67-6880AECA9281}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C584C422-1C41-4B41-9629-7A74E04A1A7A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{1217B96D-F03A-441C-9008-E755B4774B06}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="63">
   <si>
     <t>Batch #</t>
   </si>
@@ -201,14 +201,26 @@
     <t>Ingredients</t>
   </si>
   <si>
-    <t>Length</t>
+    <t>ABV %</t>
+  </si>
+  <si>
+    <t>Sugar Amount</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,8 +254,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,7 +300,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -412,77 +442,116 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -704,22 +773,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6B69AB-4664-43A9-B520-A71B492D9A09}">
-  <dimension ref="A1:W92"/>
+  <dimension ref="A1:W93"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="S1" sqref="A1:T37"/>
+      <selection sqref="A1:T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="11.375" customWidth="1"/>
-    <col min="10" max="10" width="17.25" customWidth="1"/>
-    <col min="11" max="11" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
+    <col min="10" max="11" width="11.625" customWidth="1"/>
     <col min="12" max="12" width="11.375" customWidth="1"/>
     <col min="13" max="14" width="11.5" customWidth="1"/>
     <col min="15" max="15" width="11.375" customWidth="1"/>
@@ -729,484 +798,484 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" s="31"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
       <c r="U1" s="18"/>
       <c r="V1" s="18"/>
       <c r="W1" s="18"/>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="61"/>
       <c r="U2" s="17"/>
       <c r="V2" s="17"/>
       <c r="W2" s="17"/>
     </row>
     <row r="3" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="61"/>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
     </row>
     <row r="4" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="33"/>
+      <c r="A4" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="36"/>
       <c r="U4" s="17"/>
       <c r="V4" s="17"/>
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
+      <c r="A5" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="U5" s="18"/>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
     </row>
     <row r="6" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="T6" s="33"/>
+      <c r="A6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
       <c r="U6" s="17"/>
       <c r="V6" s="17"/>
       <c r="W6" s="17"/>
     </row>
     <row r="7" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>38</v>
-      </c>
+      <c r="A7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="52"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="T7" s="47"/>
       <c r="U7" s="18"/>
       <c r="V7" s="18"/>
       <c r="W7" s="18"/>
     </row>
     <row r="8" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
+      <c r="A8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
       <c r="U8" s="17"/>
       <c r="V8" s="17"/>
       <c r="W8" s="17"/>
     </row>
     <row r="9" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="T9" s="31"/>
+      <c r="A9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="52"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="T9" s="47"/>
       <c r="U9" s="18"/>
       <c r="V9" s="18"/>
       <c r="W9" s="18"/>
     </row>
     <row r="10" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="24"/>
+      <c r="A10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="23"/>
       <c r="V10" s="17"/>
       <c r="W10" s="17"/>
     </row>
     <row r="11" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="25"/>
+      <c r="A11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="52"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="24"/>
       <c r="V11" s="18"/>
       <c r="W11" s="18"/>
     </row>
     <row r="12" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="24"/>
+      <c r="A12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="56"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="36"/>
+      <c r="U12" s="23"/>
       <c r="V12" s="17"/>
       <c r="W12" s="17"/>
     </row>
     <row r="13" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="26"/>
+      <c r="A13" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="25"/>
       <c r="V13" s="16"/>
       <c r="W13" s="16"/>
     </row>
     <row r="14" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="44" t="s">
-        <v>56</v>
-      </c>
+      <c r="A14" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="44"/>
       <c r="L14" s="44"/>
       <c r="M14" s="44"/>
       <c r="N14" s="44"/>
@@ -1216,745 +1285,875 @@
       <c r="R14" s="44"/>
       <c r="S14" s="44"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="24"/>
+      <c r="U14" s="23"/>
       <c r="V14" s="17"/>
       <c r="W14" s="17"/>
     </row>
     <row r="15" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="25"/>
+      <c r="A15" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="24"/>
       <c r="V15" s="18"/>
       <c r="W15" s="18"/>
     </row>
     <row r="16" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="24"/>
+      <c r="A16" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="23"/>
       <c r="V16" s="17"/>
       <c r="W16" s="17"/>
     </row>
     <row r="17" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="25"/>
+      <c r="A17" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="U17" s="24"/>
       <c r="V17" s="18"/>
       <c r="W17" s="18"/>
     </row>
     <row r="18" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="24"/>
+      <c r="A18" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="23"/>
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
     </row>
     <row r="19" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="47"/>
+      <c r="A19" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="47" t="s">
+        <v>57</v>
+      </c>
       <c r="L19" s="47"/>
       <c r="M19" s="47"/>
       <c r="N19" s="47"/>
       <c r="O19" s="47"/>
-      <c r="P19" s="48"/>
+      <c r="P19" s="48" t="s">
+        <v>6</v>
+      </c>
       <c r="Q19" s="48"/>
       <c r="R19" s="48"/>
       <c r="S19" s="48"/>
       <c r="T19" s="48"/>
-      <c r="U19" s="25"/>
+      <c r="U19" s="24"/>
       <c r="V19" s="18"/>
       <c r="W19" s="18"/>
     </row>
     <row r="20" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="24"/>
+      <c r="A20" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="23"/>
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
     </row>
     <row r="21" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="25"/>
+      <c r="A21" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="24"/>
       <c r="V21" s="18"/>
       <c r="W21" s="18"/>
     </row>
     <row r="22" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="24"/>
+      <c r="A22" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="23"/>
       <c r="V22" s="17"/>
       <c r="W22" s="17"/>
     </row>
     <row r="23" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="25"/>
+      <c r="A23" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="24"/>
       <c r="V23" s="18"/>
       <c r="W23" s="18"/>
     </row>
     <row r="24" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="24"/>
+      <c r="A24" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="23"/>
       <c r="V24" s="17"/>
       <c r="W24" s="17"/>
     </row>
     <row r="25" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="25"/>
+      <c r="A25" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="24"/>
       <c r="V25" s="18"/>
       <c r="W25" s="18"/>
     </row>
     <row r="26" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="24"/>
+      <c r="A26" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="T26" s="36"/>
+      <c r="U26" s="23"/>
       <c r="V26" s="17"/>
       <c r="W26" s="17"/>
     </row>
     <row r="27" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="31"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="25"/>
+      <c r="A27" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="L27" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="O27" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="P27" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q27" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="R27" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="S27" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="T27" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="U27" s="24"/>
       <c r="V27" s="18"/>
       <c r="W27" s="18"/>
     </row>
     <row r="28" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="24"/>
+      <c r="A28" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="23"/>
       <c r="V28" s="17"/>
       <c r="W28" s="17"/>
     </row>
     <row r="29" spans="1:23" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="27"/>
+      <c r="A29" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" s="30"/>
+      <c r="K29" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T29" s="29"/>
+      <c r="U29" s="26"/>
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
     </row>
     <row r="30" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="J30" s="33"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="24"/>
+      <c r="A30" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="23"/>
       <c r="V30" s="17"/>
       <c r="W30" s="17"/>
     </row>
     <row r="31" spans="1:23" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="47"/>
-      <c r="U31" s="27"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="26"/>
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
     </row>
     <row r="32" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="36"/>
+      <c r="K32" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33" t="s">
+      <c r="L32" s="47"/>
+      <c r="M32" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33" t="s">
+      <c r="N32" s="47"/>
+      <c r="O32" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33" t="s">
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33" t="s">
+      <c r="R32" s="47"/>
+      <c r="S32" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="J32" s="33"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="47"/>
       <c r="T32" s="47"/>
-      <c r="U32" s="24"/>
+      <c r="U32" s="23"/>
       <c r="V32" s="17"/>
       <c r="W32" s="17"/>
     </row>
     <row r="33" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="L33" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="M33" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="N33" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="O33" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="P33" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="Q33" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="R33" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="I33" s="14" t="s">
+      <c r="S33" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="J33" s="14" t="s">
+      <c r="T33" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="47"/>
-      <c r="T33" s="47"/>
-      <c r="U33" s="25"/>
+      <c r="U33" s="24"/>
       <c r="V33" s="18"/>
       <c r="W33" s="18"/>
     </row>
     <row r="34" spans="1:23" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="47"/>
-      <c r="U34" s="27"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="26"/>
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
     </row>
     <row r="35" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="J35" s="31"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
-      <c r="T35" s="47"/>
-      <c r="U35" s="25"/>
+      <c r="A35" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="T35" s="36"/>
+      <c r="U35" s="24"/>
       <c r="V35" s="18"/>
       <c r="W35" s="18"/>
     </row>
-    <row r="36" spans="1:23" s="22" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="47"/>
-      <c r="S36" s="47"/>
-      <c r="T36" s="47"/>
-      <c r="U36" s="27"/>
+    <row r="36" spans="1:23" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="J36" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="26"/>
       <c r="V36" s="21"/>
       <c r="W36" s="21"/>
     </row>
     <row r="37" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="47"/>
-      <c r="T37" s="47"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
     </row>
     <row r="38" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
+      <c r="A38" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="36"/>
+      <c r="K38" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="R38" s="57"/>
+      <c r="S38" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="T38" s="57"/>
     </row>
     <row r="39" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="57"/>
+      <c r="T39" s="57"/>
     </row>
     <row r="40" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
     </row>
     <row r="41" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="59"/>
+      <c r="O41" s="59"/>
+      <c r="P41" s="59"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="59"/>
+      <c r="S41" s="59"/>
+      <c r="T41" s="59"/>
     </row>
     <row r="42" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
@@ -1967,7 +2166,16 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
     </row>
     <row r="43" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
@@ -2308,15 +2516,16 @@
       <c r="K68" s="7"/>
     </row>
     <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="3"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
       <c r="K69" s="7"/>
     </row>
     <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2331,7 +2540,7 @@
       <c r="I70" s="3"/>
       <c r="K70" s="7"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2341,8 +2550,9 @@
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K71" s="7"/>
+    </row>
+    <row r="72" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2352,8 +2562,9 @@
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K72" s="7"/>
+    </row>
+    <row r="73" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2363,6 +2574,7 @@
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="3"/>
+      <c r="K73" s="7"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
@@ -2563,159 +2775,180 @@
       <c r="I91" s="3"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="6"/>
+      <c r="A92" s="1"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="3"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="136">
-    <mergeCell ref="K24:T25"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="P18:T18"/>
-    <mergeCell ref="P19:T19"/>
-    <mergeCell ref="P21:T21"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="K18:O18"/>
-    <mergeCell ref="K19:O19"/>
+  <mergeCells count="149">
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="K2:T3"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K17:S18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="K38:L39"/>
+    <mergeCell ref="M38:N39"/>
+    <mergeCell ref="O38:P39"/>
+    <mergeCell ref="Q38:R39"/>
+    <mergeCell ref="S38:T39"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="A39:J41"/>
+    <mergeCell ref="K40:T41"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
     <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="K26:T37"/>
-    <mergeCell ref="K11:T13"/>
-    <mergeCell ref="K14:T15"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="P16:T16"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="P20:T20"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="K13:T14"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="A33:J34"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="K15:T16"/>
+    <mergeCell ref="P21:T21"/>
+    <mergeCell ref="P22:T22"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="F22:J22"/>
     <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="P19:T19"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.23284313725490197" top="0.75" bottom="0.30637254901960786" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0" top="0.25" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader xml:space="preserve">&amp;C&amp;"-,Bold"&amp;20Kombucha </oddHeader>
-  </headerFooter>
 </worksheet>
 </file>